--- a/R/spring_invert_PA_scaled_Atl_boxes.xlsx
+++ b/R/spring_invert_PA_scaled_Atl_boxes.xlsx
@@ -15,12 +15,12 @@
     <sheet name="spring_invert_PA_scaled_Atl_box" sheetId="1" r:id="rId1"/>
     <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>SPECIES</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>This is for spring bottom trawl data, used in Atlantis as Jan 1 values.</t>
+  </si>
+  <si>
+    <t>copy box 18 into box 17; add zero for boundary boxes; SUM</t>
+  </si>
+  <si>
+    <t>NORMALIZE with boundary zeros</t>
   </si>
 </sst>
 </file>
@@ -596,12 +602,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,106 +930,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="3">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <v>19</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="3">
         <v>20</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="3">
         <v>21</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="3">
         <v>22</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="3">
         <v>23</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="3">
         <v>24</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="3">
         <v>25</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="3">
         <v>26</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="3">
         <v>27</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="3">
         <v>28</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="3">
         <v>29</v>
       </c>
     </row>
@@ -1791,7 +1798,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>-6.6341870674409698E-18</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>3.4723789768072398E-5</v>
@@ -2167,218 +2174,3173 @@
         <v>2.2605688700000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>C2</f>
+        <v>6.9439608999999998E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:X15" si="0">D2</f>
+        <v>6.2661300399999995E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.6354656800000003E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.0240541400000001E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.1741729599999999E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.32632471E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.49841045E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>5.0553951499999999E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>6.7400661900000006E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>5.9139415000000001E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>5.1738185800000003E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>7.6299864000000002E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>4.1615348400000002E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>4.9581495699999999E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>5.4376208600000003E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>3.3633842400000002E-2</v>
+      </c>
+      <c r="S15">
+        <f>T2</f>
+        <v>5.5932167599999999E-2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>5.5932167599999999E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>4.5244126699999998E-2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>4.3872525599999997E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>4.5167160900000003E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>4.5957591999999998E-2</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f>SUM(B15:AE15)</f>
+        <v>0.90396437680000019</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:R16" si="1">C3</f>
+        <v>1.9067449399999999E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.5236513200000001E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3.53689752E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.8305491799999999E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.38619456E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2.3845574800000002E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3.4264215799999997E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3.2679629199999997E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>3.4722309200000002E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>6.8154177900000001E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>4.4095427700000002E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>4.0121524899999997E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>3.5088268999999998E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>3.2789246100000002E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>3.3925758399999999E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>5.4737699700000003E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:S26" si="2">T3</f>
+        <v>5.54002605E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:AG16" si="3">T3</f>
+        <v>5.54002605E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="3"/>
+        <v>3.1278686E-3</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>2.2392695300000001E-2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>1.36592871E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>7.5305204599999995E-2</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16:AG26" si="4">SUM(B16:AE16)</f>
+        <v>0.79154978450000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:R17" si="5">C4</f>
+        <v>1.7809184400000001E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>2.5582783099999999E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>7.0989370499999996E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>6.5980862900000006E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>4.7289382300000002E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>2.9341176900000002E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>5.90703583E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>6.7922071000000001E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>2.1876480800000001E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>2.68916435E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>9.0483344600000001E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>5.2610994999999997E-3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>4.5390193799999999E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>2.63991251E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>4.6005589299999997E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>3.4114314000000001E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>2.67270363E-2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ref="T17:AG17" si="6">T4</f>
+        <v>2.67270363E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>3.8430819099999999E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>5.5894309900000001E-2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>4.7978254900000003E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>4.4566481200000001E-2</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>0.89002803509999973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:R18" si="7">C5</f>
+        <v>6.1058900000000001E-3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="7"/>
+        <v>4.3584490199999999E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>5.3307581299999997E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>2.90399951E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>2.2037998699999999E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>2.3026280199999999E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>2.1161536299999999E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>6.3073832999999996E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>6.0263619300000001E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>5.8191459899999999E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>5.6413349699999997E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>9.2085473999999994E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>4.54591102E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>3.22986813E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>3.8870605900000001E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>1.9676156100000002E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>4.8045595199999999E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:AG18" si="8">T5</f>
+        <v>4.8045595199999999E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>4.1675249800000001E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="8"/>
+        <v>4.5815666900000003E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>5.1026579400000001E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="8"/>
+        <v>6.1076794400000002E-2</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="4"/>
+        <v>0.87740461550000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:R19" si="9">C6</f>
+        <v>4.7283757000000003E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="9"/>
+        <v>1.6518337500000001E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="9"/>
+        <v>3.9909299299999999E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="9"/>
+        <v>2.7521568600000001E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="9"/>
+        <v>2.29558004E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>3.55437064E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>2.8875746099999999E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>4.9414108599999999E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
+        <v>3.1620074200000001E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>2.9295931399999999E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="9"/>
+        <v>4.8282327700000002E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="9"/>
+        <v>3.92549606E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="9"/>
+        <v>4.6901810699999998E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>3.9999347499999997E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>3.6553055600000002E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="9"/>
+        <v>4.4651908400000002E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>2.46944357E-2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:AG19" si="10">T6</f>
+        <v>2.46944357E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="10"/>
+        <v>3.5009469699999997E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>4.2415641800000001E-2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="10"/>
+        <v>4.1150051100000001E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="10"/>
+        <v>5.09896424E-2</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="4"/>
+        <v>0.80353541639999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:R20" si="11">C7</f>
+        <v>1.8412810000000002E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="11"/>
+        <v>6.5335641999999996E-3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="11"/>
+        <v>1.31786427E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="11"/>
+        <v>1.2718898500000001E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="11"/>
+        <v>1.5046606800000001E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="11"/>
+        <v>6.2463275300000003E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="11"/>
+        <v>2.2114811500000001E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>8.8599318999999996E-3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="11"/>
+        <v>7.7097609999999999E-3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="11"/>
+        <v>9.278728E-3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="11"/>
+        <v>1.17250905E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="11"/>
+        <v>6.1952573800000001E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>1.2515742E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>2.1842632099999999E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>1.40773171E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>5.7861785999999997E-3</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>1.7160124499999999E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:AG20" si="12">T7</f>
+        <v>1.7160124499999999E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="12"/>
+        <v>7.9908530500000005E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="12"/>
+        <v>8.6823247899999997E-2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="12"/>
+        <v>7.8573242400000007E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="12"/>
+        <v>8.2886848299999996E-2</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="4"/>
+        <v>0.66672868210000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:R21" si="13">C8</f>
+        <v>1.5695692999999999E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="13"/>
+        <v>9.8837269999999997E-4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="13"/>
+        <v>5.5021167000000003E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
+        <v>1.857858E-4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="13"/>
+        <v>6.2352754734550995E-5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="13"/>
+        <v>6.0243760000000003E-4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="13"/>
+        <v>5.4080209999999998E-4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="13"/>
+        <v>9.4705789000000002E-3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="13"/>
+        <v>9.207172E-4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="13"/>
+        <v>1.4247628E-3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="13"/>
+        <v>6.7365916000000003E-3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="13"/>
+        <v>1.9829410999999998E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="13"/>
+        <v>1.12455027E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="13"/>
+        <v>2.6925851600000002E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="13"/>
+        <v>1.9713791000000001E-2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="13"/>
+        <v>-3.7900941515482399E-17</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>5.073831E-3</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:AG21" si="14">T8</f>
+        <v>5.073831E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="14"/>
+        <v>7.4128517800000002E-2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="14"/>
+        <v>0.1348973507</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="14"/>
+        <v>0.18132274139999999</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="14"/>
+        <v>0.44928460809999998</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="4"/>
+        <v>0.93765305385473452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:R22" si="15">C9</f>
+        <v>4.7497876500000001E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="15"/>
+        <v>3.6744120599999999E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="15"/>
+        <v>2.9591035700000001E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="15"/>
+        <v>3.2260609000000003E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="15"/>
+        <v>4.7483468500000001E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="15"/>
+        <v>2.279393E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="15"/>
+        <v>2.6042706299999999E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="15"/>
+        <v>3.3813156800000001E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="15"/>
+        <v>4.2545697899999999E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="15"/>
+        <v>4.3790299800000002E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="15"/>
+        <v>3.2919730899999999E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="15"/>
+        <v>4.60479653E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="15"/>
+        <v>2.9755955399999999E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="15"/>
+        <v>2.6815348400000001E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="15"/>
+        <v>3.3735030100000001E-2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="15"/>
+        <v>5.6108031599999997E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>3.5845281E-2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:AG22" si="16">T9</f>
+        <v>3.5845281E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="16"/>
+        <v>2.2215229699999998E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="16"/>
+        <v>2.5513239300000001E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="16"/>
+        <v>2.52583506E-2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="16"/>
+        <v>3.37829724E-2</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="4"/>
+        <v>0.76640531680000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:R23" si="17">C10</f>
+        <v>3.4723789768072398E-5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="17"/>
+        <v>1.6603607699999998E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="17"/>
+        <v>0.1179608232</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="17"/>
+        <v>4.2714077000000003E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="17"/>
+        <v>6.8759690000000004E-4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="17"/>
+        <v>1.671102E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="17"/>
+        <v>3.5984742E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="17"/>
+        <v>0.16505763909999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="17"/>
+        <v>5.8367059000000001E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="17"/>
+        <v>4.0807737999999996E-3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="17"/>
+        <v>9.2887072500000001E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="17"/>
+        <v>1.32936E-4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="17"/>
+        <v>4.7916315899999999E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="17"/>
+        <v>1.28213926E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="17"/>
+        <v>1.5611815899999999E-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="17"/>
+        <v>5.5771748000000001E-3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>1.47174501E-2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23:AG23" si="18">T10</f>
+        <v>1.47174501E-2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="18"/>
+        <v>3.9549251799999997E-2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="18"/>
+        <v>4.9096039199999997E-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="18"/>
+        <v>0.176187393</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="18"/>
+        <v>0.2108153867</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="4"/>
+        <v>0.99983253288976792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:R24" si="19">C11</f>
+        <v>2.893334E-3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="19"/>
+        <v>3.3471425800000003E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="19"/>
+        <v>3.30177465E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="19"/>
+        <v>4.3480738999999997E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="19"/>
+        <v>1.5849695800000001E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="19"/>
+        <v>5.4816794799999999E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="19"/>
+        <v>5.51651986E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="19"/>
+        <v>3.7147189599999998E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="19"/>
+        <v>4.13552716E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="19"/>
+        <v>4.5851684099999998E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="19"/>
+        <v>3.13181337E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="19"/>
+        <v>3.3269574099999998E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="19"/>
+        <v>2.8603901899999999E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>3.7282510400000003E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="19"/>
+        <v>4.0812281700000001E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="19"/>
+        <v>1.4760547799999999E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>3.89198137E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24:AG24" si="20">T11</f>
+        <v>3.89198137E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="20"/>
+        <v>4.0663468299999998E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="20"/>
+        <v>3.9299266200000002E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="20"/>
+        <v>3.2891939500000002E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="20"/>
+        <v>4.2256237100000003E-2</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="4"/>
+        <v>0.78204656790000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:R25" si="21">C12</f>
+        <v>1.9182661000000001E-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="21"/>
+        <v>1.3133486E-3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="21"/>
+        <v>5.3343901000000001E-3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="21"/>
+        <v>5.2008873999999997E-3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="21"/>
+        <v>2.763106E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="21"/>
+        <v>5.28689912E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="21"/>
+        <v>4.5687220899999999E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="21"/>
+        <v>4.1795024999999996E-3</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="21"/>
+        <v>1.4856666000000001E-3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="21"/>
+        <v>2.2006892000000001E-3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="21"/>
+        <v>5.8968618999999996E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="21"/>
+        <v>1.6064039799999999E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="21"/>
+        <v>6.8335695999999996E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="21"/>
+        <v>5.2403329700000001E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="21"/>
+        <v>1.87185281E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="21"/>
+        <v>5.60218690407658E-5</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>1.9779055100000002E-2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:AG25" si="22">T12</f>
+        <v>1.9779055100000002E-2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="22"/>
+        <v>0.1100269508</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="22"/>
+        <v>0.13529994379999999</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="22"/>
+        <v>0.15680895980000001</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="22"/>
+        <v>0.15235641599999999</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="4"/>
+        <v>0.81697480016904067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:R26" si="23">C13</f>
+        <v>3.4127692799999998E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="23"/>
+        <v>2.95666921E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="23"/>
+        <v>3.1387154399999999E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="23"/>
+        <v>3.9481315599999997E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="23"/>
+        <v>2.0146748400000001E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="23"/>
+        <v>2.2447208999999999E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="23"/>
+        <v>2.92791066E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="23"/>
+        <v>3.1154248200000002E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="23"/>
+        <v>3.08983299E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="23"/>
+        <v>3.9819472799999998E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="23"/>
+        <v>3.51229796E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="23"/>
+        <v>1.9680020699999998E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="23"/>
+        <v>3.0563983199999999E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="23"/>
+        <v>3.6103547600000001E-2</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="23"/>
+        <v>4.0605476600000003E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="23"/>
+        <v>3.7735932E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>4.6446425800000003E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26:AG26" si="24">T13</f>
+        <v>4.6446425800000003E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="24"/>
+        <v>6.18181893E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="24"/>
+        <v>4.0690090700000001E-2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="24"/>
+        <v>7.1926511400000004E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="24"/>
+        <v>6.5728827000000004E-2</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="4"/>
+        <v>0.84117637950000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f>B15/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:AE28" si="25">C15/$AG$15</f>
+        <v>7.6816753825868223E-3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="25"/>
+        <v>6.9318329359192937E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="25"/>
+        <v>4.0216913114092083E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="25"/>
+        <v>3.3453244592503054E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="25"/>
+        <v>2.4051533620124393E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="25"/>
+        <v>1.4672311697670427E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="25"/>
+        <v>2.7638372862039972E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="25"/>
+        <v>5.5924716501505385E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="25"/>
+        <v>7.4561192487026764E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="25"/>
+        <v>6.5422284901702987E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="25"/>
+        <v>5.7234761820096527E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="25"/>
+        <v>8.4405830537369903E-3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="25"/>
+        <v>4.6036491556577443E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="25"/>
+        <v>5.4848948667110785E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="25"/>
+        <v>6.0153043632637085E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="25"/>
+        <v>3.7207044064128433E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="25"/>
+        <v>6.1874305045070209E-2</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="25"/>
+        <v>6.1874305045070209E-2</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="25"/>
+        <v>5.0050785032218305E-2</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="25"/>
+        <v>4.8533467386521451E-2</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="25"/>
+        <v>4.9965642517783779E-2</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="25"/>
+        <v>5.0840047660603772E-2</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:AE29" si="26">B16/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="26"/>
+        <v>2.1093142483665176E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="26"/>
+        <v>2.7917597028918668E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="26"/>
+        <v>3.9126514393415412E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="26"/>
+        <v>3.131261864565988E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="26"/>
+        <v>2.639699772735557E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="26"/>
+        <v>2.6378887721673766E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="26"/>
+        <v>3.7904387251734444E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="26"/>
+        <v>3.6151456892233577E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="26"/>
+        <v>3.8411147707961314E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="26"/>
+        <v>7.5394760733009436E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="26"/>
+        <v>4.8780050222881739E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="26"/>
+        <v>4.438396681297186E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="26"/>
+        <v>3.8815986448726164E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="26"/>
+        <v>3.6272719303467128E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="26"/>
+        <v>3.7529972718721397E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="26"/>
+        <v>6.055293892638712E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="26"/>
+        <v>6.128588904810036E-2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="26"/>
+        <v>6.128588904810036E-2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="26"/>
+        <v>3.460167989221585E-3</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="26"/>
+        <v>2.4771656798323511E-2</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="26"/>
+        <v>1.5110426307232772E-2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="26"/>
+        <v>8.3305500230636945E-2</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:AE30" si="27">B17/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="27"/>
+        <v>1.9701201570623657E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="27"/>
+        <v>2.8300654048516918E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="27"/>
+        <v>7.8531159326543032E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="27"/>
+        <v>7.299055647919421E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="27"/>
+        <v>5.2313325075267494E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="27"/>
+        <v>3.2458333152315867E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="27"/>
+        <v>6.534589173647179E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="27"/>
+        <v>7.5137995194502649E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="27"/>
+        <v>2.4200600556232004E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="27"/>
+        <v>2.9748565529977414E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="27"/>
+        <v>0.10009613976195349</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="27"/>
+        <v>5.8200296770809633E-3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="27"/>
+        <v>5.0212370050111456E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="27"/>
+        <v>2.9203722820861491E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="27"/>
+        <v>5.0893144111339925E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="27"/>
+        <v>3.7738560141897834E-3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="27"/>
+        <v>2.9566470743695342E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="27"/>
+        <v>2.9566470743695342E-2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="27"/>
+        <v>4.2513643331879569E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="27"/>
+        <v>6.1832425408027414E-2</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="27"/>
+        <v>5.3075382317432925E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="27"/>
+        <v>4.9301147637878899E-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:AE31" si="28">B18/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="28"/>
+        <v>6.7545692692168027E-3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="28"/>
+        <v>4.8214831600209125E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="28"/>
+        <v>5.8970887203217921E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="28"/>
+        <v>3.2125154315041142E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="28"/>
+        <v>2.4379277840586685E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="28"/>
+        <v>2.5472552670175081E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="28"/>
+        <v>2.3409701580178455E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="28"/>
+        <v>6.9774688714259944E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="28"/>
+        <v>6.6665922736171238E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="28"/>
+        <v>6.4373620679606391E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="28"/>
+        <v>6.2406607105139615E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="28"/>
+        <v>1.0186847663840372E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="28"/>
+        <v>5.0288608010111563E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="28"/>
+        <v>3.5730037741460691E-2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="28"/>
+        <v>4.3000152326356574E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="28"/>
+        <v>2.1766517138266946E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="28"/>
+        <v>5.3149876735275339E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="28"/>
+        <v>5.3149876735275339E-2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="28"/>
+        <v>4.6102756778457148E-2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="28"/>
+        <v>5.0683044681678426E-2</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="28"/>
+        <v>5.6447555578055156E-2</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="28"/>
+        <v>6.7565488162497675E-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:AE32" si="29">B19/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="29"/>
+        <v>5.230710215305466E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="29"/>
+        <v>1.8273217312472303E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="29"/>
+        <v>4.4149194729639032E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="29"/>
+        <v>3.0445412790961204E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="29"/>
+        <v>2.5394585217243481E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="29"/>
+        <v>3.931980873607363E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="29"/>
+        <v>3.1943455783312008E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="29"/>
+        <v>5.4663778649026058E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="29"/>
+        <v>3.4979336588388442E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="29"/>
+        <v>3.2408280848086612E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="29"/>
+        <v>5.3411759289583534E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="29"/>
+        <v>4.3425340209711671E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="29"/>
+        <v>5.1884578533980111E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="29"/>
+        <v>4.4248809495785864E-2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="29"/>
+        <v>4.043638946193482E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="29"/>
+        <v>4.9395650476920426E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="29"/>
+        <v>2.7317930146116345E-2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="29"/>
+        <v>2.7317930146116345E-2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="29"/>
+        <v>3.8728815646399919E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="29"/>
+        <v>4.6921806753214959E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="29"/>
+        <v>4.5521761870384349E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="29"/>
+        <v>5.6406694454599428E-2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:AE33" si="30">B20/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="30"/>
+        <v>2.0368955317886149E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="30"/>
+        <v>7.2276788418682717E-3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="30"/>
+        <v>1.457871907148808E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="30"/>
+        <v>1.4070132437103797E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="30"/>
+        <v>1.6645132470003321E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="30"/>
+        <v>6.9099266412596519E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="30"/>
+        <v>2.4464251100563942E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="30"/>
+        <v>9.8011958517257337E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="30"/>
+        <v>8.5288327702605533E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="30"/>
+        <v>1.026448413027773E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="30"/>
+        <v>1.2970743981644916E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="30"/>
+        <v>6.853430886215868E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="30"/>
+        <v>1.3845392939382473E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="30"/>
+        <v>2.4163155828465378E-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="30"/>
+        <v>1.5572867096636233E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="30"/>
+        <v>6.4008922790551254E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="30"/>
+        <v>1.8983186661344104E-2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="30"/>
+        <v>1.8983186661344104E-2</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="30"/>
+        <v>8.8397875569912604E-2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="30"/>
+        <v>9.6047200673273228E-2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="30"/>
+        <v>8.692072875498294E-2</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="30"/>
+        <v>9.1692604738934855E-2</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:AE34" si="31">B21/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="31"/>
+        <v>1.7363176473349715E-3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="31"/>
+        <v>1.0933757185197961E-3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="31"/>
+        <v>6.0866521305599297E-3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="31"/>
+        <v>2.0552336438043578E-4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="31"/>
+        <v>6.8977004332048338E-5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="31"/>
+        <v>6.6643953618239515E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="31"/>
+        <v>5.9825598649630317E-4</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="31"/>
+        <v>1.0476716940467822E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="31"/>
+        <v>1.0185326143706062E-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="31"/>
+        <v>1.5761271534212517E-3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="31"/>
+        <v>7.4522755242272714E-3</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="31"/>
+        <v>2.1936053575689969E-3</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="31"/>
+        <v>1.2440205597269945E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="31"/>
+        <v>2.9786407839782914E-2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="31"/>
+        <v>2.1808150305420305E-2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="31"/>
+        <v>-4.1927472462632106E-17</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="31"/>
+        <v>5.6128660931984622E-3</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="31"/>
+        <v>5.6128660931984622E-3</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="31"/>
+        <v>8.2003804245486048E-2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="31"/>
+        <v>0.14922861360702236</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="31"/>
+        <v>0.20058615809826008</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="31"/>
+        <v>0.49701583340092509</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:AE35" si="32">B22/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="32"/>
+        <v>5.2543969341071486E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="32"/>
+        <v>4.064775287945837E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="32"/>
+        <v>3.273473652219698E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="32"/>
+        <v>3.5687920705682386E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="32"/>
+        <v>5.2528030659891367E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="32"/>
+        <v>2.521551798389407E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="32"/>
+        <v>2.8809438699553845E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="32"/>
+        <v>3.7405408518084861E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="32"/>
+        <v>4.7065679789960492E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="32"/>
+        <v>4.8442506058718832E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="32"/>
+        <v>3.6417066584564541E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="32"/>
+        <v>5.0940022064816383E-2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="32"/>
+        <v>3.2917177007942458E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="32"/>
+        <v>2.9664164969559224E-2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="32"/>
+        <v>3.73189817716277E-2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="32"/>
+        <v>6.20688525344553E-2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="32"/>
+        <v>3.9653422103745881E-2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="32"/>
+        <v>3.9653422103745881E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="32"/>
+        <v>2.4575337557704514E-2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="32"/>
+        <v>2.8223722034618117E-2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="32"/>
+        <v>2.7941754396797813E-2</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="32"/>
+        <v>3.7372017379258292E-2</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:AE36" si="33">B23/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="33"/>
+        <v>3.8412785569043447E-5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="33"/>
+        <v>1.8367546472103407E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="33"/>
+        <v>0.13049277850702132</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="33"/>
+        <v>4.7251947196421864E-3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="33"/>
+        <v>7.6064601398792629E-4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="33"/>
+        <v>1.8486370070418463E-3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="33"/>
+        <v>3.9807699200918329E-3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="33"/>
+        <v>0.18259307925860729</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="33"/>
+        <v>6.4567875126470345E-3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="33"/>
+        <v>4.5143082014423895E-3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="33"/>
+        <v>0.10275523558662426</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="33"/>
+        <v>1.4705889237647663E-4</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="33"/>
+        <v>5.3006863024427968E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="33"/>
+        <v>1.4183515334295856E-2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="33"/>
+        <v>1.7270388414270525E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="33"/>
+        <v>6.169684274222164E-3</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="33"/>
+        <v>1.6281006727388105E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="33"/>
+        <v>1.6281006727388105E-2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="33"/>
+        <v>4.3750896401474199E-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="33"/>
+        <v>5.4311918102124913E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="33"/>
+        <v>0.19490523910211674</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="33"/>
+        <v>0.23321205139330659</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:AE37" si="34">B24/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="34"/>
+        <v>3.2007168360353904E-3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="34"/>
+        <v>3.7027372603428893E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="34"/>
+        <v>3.6525495193606608E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="34"/>
+        <v>4.8100058050871621E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="34"/>
+        <v>1.7533540266384529E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="34"/>
+        <v>6.0640436953997442E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="34"/>
+        <v>6.1025854575467588E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="34"/>
+        <v>4.1093643237911266E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="34"/>
+        <v>4.574878464392159E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="34"/>
+        <v>5.0722888287161524E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="34"/>
+        <v>3.4645318448128466E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="34"/>
+        <v>3.6804076525419102E-2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="34"/>
+        <v>3.1642731322285879E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="34"/>
+        <v>4.1243340287344825E-2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="34"/>
+        <v>4.5148108429309948E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="34"/>
+        <v>1.6328683053033331E-2</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="34"/>
+        <v>4.3054587878534188E-2</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="34"/>
+        <v>4.3054587878534188E-2</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="34"/>
+        <v>4.4983485349220448E-2</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="34"/>
+        <v>4.3474352760578823E-2</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="34"/>
+        <v>3.6386322673948972E-2</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="34"/>
+        <v>4.6745467171599712E-2</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:AE38" si="35">B25/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="35"/>
+        <v>2.1220593966220103E-3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="35"/>
+        <v>1.4528765001218351E-3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="35"/>
+        <v>5.9011065445781609E-3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="35"/>
+        <v>5.7534207469667606E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="35"/>
+        <v>3.056653636929025E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="35"/>
+        <v>5.8485702044094076E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="35"/>
+        <v>5.0540952799192199E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="35"/>
+        <v>4.6235256690039944E-3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="35"/>
+        <v>1.6435012685557409E-3</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="35"/>
+        <v>2.4344866418191799E-3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="35"/>
+        <v>6.5233343827935655E-3</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="35"/>
+        <v>1.7770655804895868E-2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="35"/>
+        <v>7.5595563004269908E-3</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="35"/>
+        <v>5.7970569465918352E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="35"/>
+        <v>2.0707152383883626E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="35"/>
+        <v>6.1973536212877226E-5</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="35"/>
+        <v>2.1880347951339755E-2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="35"/>
+        <v>2.1880347951339755E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="35"/>
+        <v>0.12171602512644497</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="35"/>
+        <v>0.14967397750667641</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="35"/>
+        <v>0.1734680744335278</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="35"/>
+        <v>0.16854250002564919</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:AE39" si="36">B26/$AG$15</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="36"/>
+        <v>3.7753360282637177E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="36"/>
+        <v>3.2707806699933215E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="36"/>
+        <v>3.472167178878148E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="36"/>
+        <v>4.3675742776239E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="36"/>
+        <v>2.2287104356168028E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="36"/>
+        <v>2.4831961940206398E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="36"/>
+        <v>3.2389668610224367E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="36"/>
+        <v>3.4464022034015176E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="36"/>
+        <v>3.4180915413258788E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="36"/>
+        <v>4.4049825216519518E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="36"/>
+        <v>3.8854384643268826E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="36"/>
+        <v>2.1770792306735062E-2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="36"/>
+        <v>3.3811048293955287E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="36"/>
+        <v>3.993912650386202E-2</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="36"/>
+        <v>4.4919332710589614E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="36"/>
+        <v>4.1744932619561602E-2</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="36"/>
+        <v>5.1380814324142508E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="36"/>
+        <v>5.1380814324142508E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="36"/>
+        <v>6.8385647583629416E-2</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="36"/>
+        <v>4.50129360672833E-2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="36"/>
+        <v>7.9567860466600623E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="36"/>
+        <v>7.2711744717947377E-2</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="D21">
+      <c r="D43">
         <v>0.22950000000000001</v>
       </c>
-      <c r="E21">
+      <c r="E43">
         <v>0.10680000000000001</v>
       </c>
-      <c r="F21">
+      <c r="F43">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="G21">
+      <c r="G43">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="H21">
+      <c r="H43">
         <v>0.1489</v>
       </c>
-      <c r="I21">
+      <c r="I43">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="J21">
+      <c r="J43">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>0.1085</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+    <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>0.24510000000000001</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>9.06E-2</v>
       </c>
-      <c r="H24">
+      <c r="H46">
         <v>0.159</v>
       </c>
-      <c r="I24">
+      <c r="I46">
         <v>8.48E-2</v>
       </c>
-      <c r="J24">
+      <c r="J46">
         <v>5.28E-2</v>
       </c>
-      <c r="K24">
+      <c r="K46">
         <v>0.14169999999999999</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O24">
+      <c r="O46">
         <v>0.1159</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>7.51E-2</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
         <v>0</v>
       </c>
     </row>

--- a/R/spring_invert_PA_scaled_Atl_boxes.xlsx
+++ b/R/spring_invert_PA_scaled_Atl_boxes.xlsx
@@ -932,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2376,7 +2376,7 @@
         <v>5.54002605E-2</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:AG16" si="3">T3</f>
+        <f t="shared" ref="T16:X16" si="3">T3</f>
         <v>5.54002605E-2</v>
       </c>
       <c r="U16">
@@ -2497,7 +2497,7 @@
         <v>2.67270363E-2</v>
       </c>
       <c r="T17">
-        <f t="shared" ref="T17:AG17" si="6">T4</f>
+        <f t="shared" ref="T17:X17" si="6">T4</f>
         <v>2.67270363E-2</v>
       </c>
       <c r="U17">
@@ -2618,7 +2618,7 @@
         <v>4.8045595199999999E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" ref="T18:AG18" si="8">T5</f>
+        <f t="shared" ref="T18:X18" si="8">T5</f>
         <v>4.8045595199999999E-2</v>
       </c>
       <c r="U18">
@@ -2739,7 +2739,7 @@
         <v>2.46944357E-2</v>
       </c>
       <c r="T19">
-        <f t="shared" ref="T19:AG19" si="10">T6</f>
+        <f t="shared" ref="T19:X19" si="10">T6</f>
         <v>2.46944357E-2</v>
       </c>
       <c r="U19">
@@ -2860,7 +2860,7 @@
         <v>1.7160124499999999E-2</v>
       </c>
       <c r="T20">
-        <f t="shared" ref="T20:AG20" si="12">T7</f>
+        <f t="shared" ref="T20:X20" si="12">T7</f>
         <v>1.7160124499999999E-2</v>
       </c>
       <c r="U20">
@@ -2981,7 +2981,7 @@
         <v>5.073831E-3</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T21:AG21" si="14">T8</f>
+        <f t="shared" ref="T21:X21" si="14">T8</f>
         <v>5.073831E-3</v>
       </c>
       <c r="U21">
@@ -3102,7 +3102,7 @@
         <v>3.5845281E-2</v>
       </c>
       <c r="T22">
-        <f t="shared" ref="T22:AG22" si="16">T9</f>
+        <f t="shared" ref="T22:X22" si="16">T9</f>
         <v>3.5845281E-2</v>
       </c>
       <c r="U22">
@@ -3223,7 +3223,7 @@
         <v>1.47174501E-2</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:AG23" si="18">T10</f>
+        <f t="shared" ref="T23:X23" si="18">T10</f>
         <v>1.47174501E-2</v>
       </c>
       <c r="U23">
@@ -3344,7 +3344,7 @@
         <v>3.89198137E-2</v>
       </c>
       <c r="T24">
-        <f t="shared" ref="T24:AG24" si="20">T11</f>
+        <f t="shared" ref="T24:X24" si="20">T11</f>
         <v>3.89198137E-2</v>
       </c>
       <c r="U24">
@@ -3465,7 +3465,7 @@
         <v>1.9779055100000002E-2</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T25:AG25" si="22">T12</f>
+        <f t="shared" ref="T25:X25" si="22">T12</f>
         <v>1.9779055100000002E-2</v>
       </c>
       <c r="U25">
@@ -3586,7 +3586,7 @@
         <v>4.6446425800000003E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26:AG26" si="24">T13</f>
+        <f t="shared" ref="T26:X26" si="24">T13</f>
         <v>4.6446425800000003E-2</v>
       </c>
       <c r="U26">

--- a/R/spring_invert_PA_scaled_Atl_boxes.xlsx
+++ b/R/spring_invert_PA_scaled_Atl_boxes.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="spring_invert_PA_scaled_Atl_box" sheetId="1" r:id="rId1"/>
-    <sheet name="readme" sheetId="2" r:id="rId2"/>
+    <sheet name="2D calc" sheetId="3" r:id="rId2"/>
+    <sheet name="readme" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>SPECIES</t>
   </si>
@@ -99,12 +100,87 @@
   <si>
     <t>NORMALIZE with boundary zeros</t>
   </si>
+  <si>
+    <t>Box area (m2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filter_Other_N =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ ;</t>
+  </si>
+  <si>
+    <t>XXX_N =</t>
+  </si>
+  <si>
+    <t>(paste scalar here)</t>
+  </si>
+  <si>
+    <t>total NEUS biomass in mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0, 67.1800620400568, 67.169624003467, 67.2106814919619, 67.1100631326957, 67.2183511878286, 67.2072937091949, 67.2188746729358, 67.1256052351668, 0, 0, 0, 0, 67.2066000827306, 0, 67.2090784058426, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 ;</t>
+  </si>
+  <si>
+    <t>VALUES SAVED HERE RM 20180823</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>totalBiomass(mg)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Init_entry</t>
+  </si>
+  <si>
+    <t>SEE 'spring_invert_PA_scaled_Atl_boxes.xlsx' for biomass scaling</t>
+  </si>
+  <si>
+    <t>Scalar, also used for XXX_cover</t>
+  </si>
+  <si>
+    <t>NOAA TM142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0, 0.0941, 0.2295, 0.1068, 0.0282, 0.0849, 0.1489, 0.0794, 0.0494, 0, 0, 0, 0, 0.1085, 0, 0.0703, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 ;</t>
+  </si>
+  <si>
+    <t>NOAA TM148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0, 0, 286.941609468405, 0, 0, 286.924976095042, 287.06406178004, 287.161741675816, 286.982344649134, 287.115928093719, 0, 0, 286.779016476727, 287.161104132294, 0, 287.192135890684, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0, 0.163401316, 0.163401316, 0.163401316, 0.163401316, 0.163401316, 0.163401316, 0.163401316, 0.088379386, 0, 0, 0, 0, 0.088379386, 0, 0.088379386, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 ;</t>
+  </si>
+  <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>CRD 06-25 p369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0, 3.84127855690434E-05, 0.0183675464721034, 0.130492778507021, 0.00472519471964219, 0.000760646013987926, 0.00184863700704185, 0.00398076992009183, 0.182593079258607, 0.00645678751264703, 0.00451430820144239, 0.102755235586624, 0.000147058892376477, 0.053006863024428, 0.0141835153342959, 0.0172703884142705, 0.00616968427422216, 0.0162810067273881, 0.0162810067273881, 0.0437508964014742, 0.0543119181021249, 0.194905239102117, 0.233212051393307, 0, 0, 0, 0, 0, 0, 0 ;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +321,22 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC5C8C6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +516,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D1F21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -557,8 +659,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0C1F30"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0C1F30"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -601,16 +714,32 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -648,6 +777,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -932,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -5351,6 +5481,779 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>12647072876</v>
+      </c>
+      <c r="B2" s="6">
+        <v>12286957937</v>
+      </c>
+      <c r="C2" s="6">
+        <v>29971254486</v>
+      </c>
+      <c r="D2" s="6">
+        <v>13938887160</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3686010853</v>
+      </c>
+      <c r="F2" s="6">
+        <v>11079367895</v>
+      </c>
+      <c r="G2" s="6">
+        <v>19434502995</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10361542520</v>
+      </c>
+      <c r="I2" s="6">
+        <v>6455559422</v>
+      </c>
+      <c r="J2" s="6">
+        <v>17316802511</v>
+      </c>
+      <c r="K2" s="6">
+        <v>11225017827</v>
+      </c>
+      <c r="L2" s="6">
+        <v>15989283041</v>
+      </c>
+      <c r="M2" s="6">
+        <v>4282287423</v>
+      </c>
+      <c r="N2" s="6">
+        <v>14161620805</v>
+      </c>
+      <c r="O2" s="6">
+        <v>12608709589</v>
+      </c>
+      <c r="P2" s="6">
+        <v>9175347755</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>11324453301</v>
+      </c>
+      <c r="R2" s="6">
+        <v>5030841128</v>
+      </c>
+      <c r="S2" s="6">
+        <v>4831356901</v>
+      </c>
+      <c r="T2" s="6">
+        <v>17683470543</v>
+      </c>
+      <c r="U2" s="6">
+        <v>9957085306</v>
+      </c>
+      <c r="V2" s="6">
+        <v>6033778736</v>
+      </c>
+      <c r="W2" s="6">
+        <v>17242902545</v>
+      </c>
+      <c r="X2" s="6">
+        <v>173026053</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>294595432</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>35556339824</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>17529276725</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>26033456848</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>40232596619</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>27427742420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1489</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.1085</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1000000000000000</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <f>$A$13*A11/20/5.7/A2</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
+        <f>$A$13*B11/20/5.7/B2</f>
+        <v>67.180062040056782</v>
+      </c>
+      <c r="C15" s="9">
+        <f>$A$13*C11/20/5.7/C2</f>
+        <v>67.16962400346695</v>
+      </c>
+      <c r="D15" s="9">
+        <f>$A$13*D11/20/5.7/D2</f>
+        <v>67.210681491961935</v>
+      </c>
+      <c r="E15" s="9">
+        <f>$A$13*E11/20/5.7/E2</f>
+        <v>67.110063132695714</v>
+      </c>
+      <c r="F15" s="9">
+        <f>$A$13*F11/20/5.7/F2</f>
+        <v>67.218351187828588</v>
+      </c>
+      <c r="G15" s="9">
+        <f>$A$13*G11/20/5.7/G2</f>
+        <v>67.2072937091949</v>
+      </c>
+      <c r="H15" s="9">
+        <f>$A$13*H11/20/5.7/H2</f>
+        <v>67.218874672935797</v>
+      </c>
+      <c r="I15" s="9">
+        <f>$A$13*I11/20/5.7/I2</f>
+        <v>67.125605235166759</v>
+      </c>
+      <c r="J15" s="9">
+        <f>$A$13*J11/20/5.7/J2</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <f>$A$13*K11/20/5.7/K2</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>$A$13*L11/20/5.7/L2</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <f>$A$13*M11/20/5.7/M2</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <f>$A$13*N11/20/5.7/N2</f>
+        <v>67.206600082730588</v>
+      </c>
+      <c r="O15" s="9">
+        <f>$A$13*O11/20/5.7/O2</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <f>$A$13*P11/20/5.7/P2</f>
+        <v>67.209078405842575</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>$A$13*Q11/20/5.7/Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <f>$A$13*R11/20/5.7/R2</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <f>$A$13*S11/20/5.7/S2</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <f>$A$13*T11/20/5.7/T2</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <f>$A$13*U11/20/5.7/U2</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <f>$A$13*V11/20/5.7/V2</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <f>$A$13*W11/20/5.7/W2</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <f>$A$13*X11/20/5.7/X2</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <f>$A$13*Y11/20/5.7/Y2</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <f>$A$13*Z11/20/5.7/Z2</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <f>$A$13*AA11/20/5.7/AA2</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <f>$A$13*AB11/20/5.7/AB2</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <f>$A$13*AC11/20/5.7/AC2</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
+        <f>$A$13*AD11/20/5.7/AD2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <f>IF(ISNUMBER(A15),A15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="10">
+        <f>IF(ISNUMBER(B15),B15,_)</f>
+        <v>67.180062040056782</v>
+      </c>
+      <c r="C16" s="10">
+        <f>IF(ISNUMBER(C15),C15,_)</f>
+        <v>67.16962400346695</v>
+      </c>
+      <c r="D16" s="10">
+        <f>IF(ISNUMBER(D15),D15,_)</f>
+        <v>67.210681491961935</v>
+      </c>
+      <c r="E16" s="10">
+        <f>IF(ISNUMBER(E15),E15,_)</f>
+        <v>67.110063132695714</v>
+      </c>
+      <c r="F16" s="10">
+        <f>IF(ISNUMBER(F15),F15,_)</f>
+        <v>67.218351187828588</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IF(ISNUMBER(G15),G15,_)</f>
+        <v>67.2072937091949</v>
+      </c>
+      <c r="H16" s="10">
+        <f>IF(ISNUMBER(H15),H15,_)</f>
+        <v>67.218874672935797</v>
+      </c>
+      <c r="I16" s="10">
+        <f>IF(ISNUMBER(I15),I15,_)</f>
+        <v>67.125605235166759</v>
+      </c>
+      <c r="J16" s="10">
+        <f>IF(ISNUMBER(J15),J15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <f>IF(ISNUMBER(K15),K15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <f>IF(ISNUMBER(L15),L15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <f>IF(ISNUMBER(M15),M15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <f>IF(ISNUMBER(N15),N15,_)</f>
+        <v>67.206600082730588</v>
+      </c>
+      <c r="O16" s="10">
+        <f>IF(ISNUMBER(O15),O15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f>IF(ISNUMBER(P15),P15,_)</f>
+        <v>67.209078405842575</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>IF(ISNUMBER(Q15),Q15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <f>IF(ISNUMBER(R15),R15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <f>IF(ISNUMBER(S15),S15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <f>IF(ISNUMBER(T15),T15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <f>IF(ISNUMBER(U15),U15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
+        <f>IF(ISNUMBER(V15),V15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="10">
+        <f>IF(ISNUMBER(W15),W15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="10">
+        <f>IF(ISNUMBER(X15),X15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <f>IF(ISNUMBER(Y15),Y15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10">
+        <f>IF(ISNUMBER(Z15),Z15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10">
+        <f>IF(ISNUMBER(AA15),AA15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="10">
+        <f>IF(ISNUMBER(AB15),AB15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10">
+        <f>IF(ISNUMBER(AC15),AC15,_)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="10">
+        <f>IF(ISNUMBER(AD15),AD15,_)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="str">
+        <f>"  "&amp;A16&amp;", "&amp;B16&amp;", "&amp;C16&amp;", "&amp;D16&amp;", "&amp;E16&amp;", "&amp;F16&amp;", "&amp;G16&amp;", "&amp;H16&amp;", "&amp;I16&amp;", "&amp;J16&amp;", "&amp;K16&amp;", "&amp;L16&amp;", "&amp;M16&amp;", "&amp;N16&amp;", "&amp;O16&amp;", "&amp;P16&amp;", "&amp;Q16&amp;", "&amp;R16&amp;", "&amp;S16&amp;", "&amp;T16&amp;", "&amp;U16&amp;", "&amp;V16&amp;", "&amp;W16&amp;", "&amp;X16&amp;", "&amp;Y16&amp;", "&amp;Z16&amp;", "&amp;AA16&amp;", "&amp;AB16&amp;", "&amp;AC16&amp;", "&amp;AD16&amp;" ;"</f>
+        <v xml:space="preserve">  0, 67.1800620400568, 67.169624003467, 67.2106814919619, 67.1100631326957, 67.2183511878286, 67.2072937091949, 67.2188746729358, 67.1256052351668, 0, 0, 0, 0, 67.2066000827306, 0, 67.2090784058426, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 ;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3.8412785569043447E-5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.8367546472103407E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.13049277850702132</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.7251947196421864E-3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>7.6064601398792629E-4</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1.8486370070418463E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3.9807699200918329E-3</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.18259307925860729</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6.4567875126470345E-3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.5143082014423895E-3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.10275523558662426</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1.4705889237647663E-4</v>
+      </c>
+      <c r="N22" s="5">
+        <v>5.3006863024427968E-2</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1.4183515334295856E-2</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1.7270388414270525E-2</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>6.169684274222164E-3</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1.6281006727388105E-2</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1.6281006727388105E-2</v>
+      </c>
+      <c r="T22" s="5">
+        <v>4.3750896401474199E-2</v>
+      </c>
+      <c r="U22" s="5">
+        <v>5.4311918102124913E-2</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0.19490523910211674</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0.23321205139330659</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="str">
+        <f>"  "&amp;A22&amp;", "&amp;B22&amp;", "&amp;C22&amp;", "&amp;D22&amp;", "&amp;E22&amp;", "&amp;F22&amp;", "&amp;G22&amp;", "&amp;H22&amp;", "&amp;I22&amp;", "&amp;J22&amp;", "&amp;K22&amp;", "&amp;L22&amp;", "&amp;M22&amp;", "&amp;N22&amp;", "&amp;O22&amp;", "&amp;P22&amp;", "&amp;Q22&amp;", "&amp;R22&amp;", "&amp;S22&amp;", "&amp;T22&amp;", "&amp;U22&amp;", "&amp;V22&amp;", "&amp;W22&amp;", "&amp;X22&amp;", "&amp;Y22&amp;", "&amp;Z22&amp;", "&amp;AA22&amp;", "&amp;AB22&amp;", "&amp;AC22&amp;", "&amp;AD22&amp;" ;"</f>
+        <v xml:space="preserve">  0, 3.84127855690434E-05, 0.0183675464721034, 0.130492778507021, 0.00472519471964219, 0.000760646013987926, 0.00184863700704185, 0.00398076992009183, 0.182593079258607, 0.00645678751264703, 0.00451430820144239, 0.102755235586624, 0.000147058892376477, 0.053006863024428, 0.0141835153342959, 0.0172703884142705, 0.00616968427422216, 0.0162810067273881, 0.0162810067273881, 0.0437508964014742, 0.0543119181021249, 0.194905239102117, 0.233212051393307, 0, 0, 0, 0, 0, 0, 0 ;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1000000000000000</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4000000000000000</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="9">
+        <v>63000000000000</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
